--- a/biology/Botanique/Sansevieria_volkensii/Sansevieria_volkensii.xlsx
+++ b/biology/Botanique/Sansevieria_volkensii/Sansevieria_volkensii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria volkensii, également appelée Dracaena volkensii[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria volkensii, également appelée Dracaena volkensii, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria volkensii est une espèce de sansevières à feuilles érectiles (deux à huit par pied), longues (50 à 150 cm) et étroites (1,3 à 1,9 cm), avec un sillon central marqué, très rugueuses, de couleur verte avec des striures plus claires[2],[3].
-Elle a été identifiée comme espèce à part entière en 1895 par le géographe et botaniste allemand Robert Louis August Maximilian Gürke[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria volkensii est une espèce de sansevières à feuilles érectiles (deux à huit par pied), longues (50 à 150 cm) et étroites (1,3 à 1,9 cm), avec un sillon central marqué, très rugueuses, de couleur verte avec des striures plus claires,.
+Elle a été identifiée comme espèce à part entière en 1895 par le géographe et botaniste allemand Robert Louis August Maximilian Gürke.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire d'Afrique de l'Est, présente au Kenya, au sud de la Somalie, au nord de la Tanzanie et jusque dans le sud-est de la République démocratique du Congo[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Afrique de l'Est, présente au Kenya, au sud de la Somalie, au nord de la Tanzanie et jusque dans le sud-est de la République démocratique du Congo.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes et cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente plusieurs synonymes[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente plusieurs synonymes :
 Sansevieria intermedia (N.E. Brown, 1914)
 Acyntha polyrhytis (Chiovenda, 1932)
 Sansevieria quarrei (De Wildeman, 1932)
